--- a/xls/14002-108-240005222 (Dependant)_2.xlsx
+++ b/xls/14002-108-240005222 (Dependant)_2.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ค่ารักษาพยาบาล</t>
+          <t>ค่ารักษาพยาบาลทั่วไป</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
